--- a/SpringSecurity/OAuth2.0认证.xlsx
+++ b/SpringSecurity/OAuth2.0认证.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30885" windowHeight="18090" activeTab="1"/>
+    <workbookView windowHeight="18090" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SpringSecurityOAuth开发APP认证框架" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="SpringSecurityOAuth开发APP认证框架1" sheetId="1" r:id="rId1"/>
+    <sheet name="SpringSecurity开发App认证框架2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -17,9 +17,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -39,7 +39,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54,10 +54,54 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,14 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,45 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,11 +168,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -184,19 +184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +196,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,61 +238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,55 +250,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,6 +278,96 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -375,6 +375,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -389,50 +398,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +440,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -483,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -495,7 +495,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,112 +516,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2802,178 +2802,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>请求</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>来</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>会</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>通过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>控制</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>层</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>所有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>获取</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>令牌</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>请求</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>都</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>由</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>处理</a:t>
+            <a:t>请求过来会通过这个控制层，所有的获取令牌的请求都由这个类处理</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
             <a:solidFill>
@@ -4277,7 +4106,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>实现</a:t>
+            <a:t>实现了这四种授权模式 ，在这个实现类中，会根据请求传上来的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>GrantType</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -4286,358 +4124,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>了</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>四种</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>授权</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>模式 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实现</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>会</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>根据</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>请求</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>传上</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>来</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>rantT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ype</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>去</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>选择</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>具体</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>授权</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>模式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>执行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>令牌</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>生成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>逻辑</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>但是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>并不</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>生成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>令牌</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>）</a:t>
+            <a:t>去选择具体的授权模式执行令牌生成逻辑（但是在这个类中并不生成令牌）</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
             <a:solidFill>
@@ -4658,7 +4145,7 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>419735</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
@@ -4671,7 +4158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9058275" y="10039350"/>
-          <a:ext cx="2334260" cy="1266190"/>
+          <a:ext cx="6449060" cy="1266190"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5021,7 +4508,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>authenticatiOn</a:t>
+            <a:t>authentication</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -5418,13 +4905,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295910</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5433,8 +4920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6238875" y="12296775"/>
-          <a:ext cx="229235" cy="610235"/>
+          <a:off x="6238875" y="12249150"/>
+          <a:ext cx="229235" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -5468,26 +4955,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>143510</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>686435</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="圆角矩形 23"/>
+        <xdr:cNvPr id="28" name="圆角矩形 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="12954000"/>
-          <a:ext cx="3839210" cy="2101850"/>
+          <a:off x="3705225" y="12896850"/>
+          <a:ext cx="3838575" cy="2101850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5668,416 +5155,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>153035</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="圆角矩形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5915025" y="12954000"/>
-          <a:ext cx="3839210" cy="2101850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>AuthorizationServerTokenServices</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(DefaultTokenServices)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个接口是认证服务器的令牌服务，这个接口拿到以上的所有信息之后，会最终生成令牌</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>162560</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="圆角矩形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5924550" y="12915900"/>
-          <a:ext cx="3839210" cy="2101850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>AuthorizationServerTokenServices</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(DefaultTokenServices)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个接口是认证服务器的令牌服务，这个接口拿到以上的所有信息之后，会最终生成令牌</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>58420</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>18415</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6086,7 +5173,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="14173200"/>
+          <a:off x="3838575" y="14087475"/>
           <a:ext cx="1563370" cy="761365"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6255,16 +5342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>544195</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>46355</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6273,7 +5360,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7896225" y="14211300"/>
+          <a:off x="5772150" y="14116050"/>
           <a:ext cx="1563370" cy="751205"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6435,16 +5522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>296545</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>420370</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6453,7 +5540,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="15744825"/>
+          <a:off x="4010025" y="15754350"/>
           <a:ext cx="3268345" cy="647065"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6988,16 +6075,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>276860</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>124460</xdr:rowOff>
+      <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7006,7 +6093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="15116175"/>
+          <a:off x="5534025" y="15106650"/>
           <a:ext cx="229235" cy="610235"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -7140,63 +6227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11325225" y="12658725"/>
-          <a:ext cx="342900" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>676910</xdr:colOff>
+      <xdr:colOff>276860</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7205,7 +6245,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10963275" y="13125450"/>
+          <a:off x="8505825" y="13115925"/>
           <a:ext cx="3429635" cy="1266190"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7336,6 +6376,337 @@
               </a:solidFill>
             </a:rPr>
             <a:t>AuthenticationSuccessHandler</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>在这个登陆成功处理器中，已经封装好了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>authentication</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>相关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>所以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>OAuth2Authentication</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>只需要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>组装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>一</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>OAuth2Request</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="圆角矩形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="14935200"/>
+          <a:ext cx="3429000" cy="1266190"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登陆逻辑处理</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -7366,25 +6737,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="圆角矩形 44"/>
+        <xdr:cNvPr id="46" name="圆角矩形 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11001375" y="14963775"/>
+          <a:off x="8515350" y="16773525"/>
           <a:ext cx="3429000" cy="1266190"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7406,7 +6777,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -7509,12 +6880,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>登陆逻辑处理</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XXXFilter</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -7545,344 +6916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>410845</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>151765</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="圆角矩形 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11010900" y="16544925"/>
-          <a:ext cx="3429000" cy="1266190"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>XXXFilter</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>33020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="46" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14439900" y="17164050"/>
-          <a:ext cx="1400175" cy="13970"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="0"/>
-          <a:endCxn id="45" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="12715875" y="16229965"/>
-          <a:ext cx="9525" cy="314960"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>334010</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直接箭头连接符 48"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="0"/>
-          <a:endCxn id="43" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="12678410" y="14391640"/>
-          <a:ext cx="37465" cy="572135"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>248920</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:rowOff>113030</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7891,7 +6934,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15830550" y="16792575"/>
+          <a:off x="13249275" y="17021175"/>
           <a:ext cx="1563370" cy="751205"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8030,6 +7073,3245 @@
             </a:solidFill>
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="左箭头 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11934825" y="17240250"/>
+          <a:ext cx="1343025" cy="267970"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>591185</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="上箭头 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10192385" y="14401800"/>
+          <a:ext cx="179705" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74930</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="上箭头 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="12582525"/>
+          <a:ext cx="179705" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="上箭头 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="16211550"/>
+          <a:ext cx="179705" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="圆角矩形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14916150" y="16087725"/>
+          <a:ext cx="4057650" cy="1886585"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>在这一块的代码中，橙色块的逻辑就是根据业务需求自定义的代码逻辑。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+            <a:cs typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>OAuth2Request</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>authentication</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这两个对象中，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Authentication</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这个对象在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>AuthenticationSuccessHandler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>已经</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>组装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>好</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>OAuth2Request</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>对象</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>需要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>自己</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>而</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>OAuth2Request</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>对象</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>封装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>两部分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>其一</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>lientD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>etails</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>相关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>其二</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>okenR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>equest</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>请求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>lient</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>以外</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="+mn-ea"/>
+            <a:cs typeface="+mn-ea"/>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="上箭头 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12601575" y="11315700"/>
+          <a:ext cx="179705" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="上箭头 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15039975" y="11325225"/>
+          <a:ext cx="179705" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448945</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="圆角矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11915775" y="11849100"/>
+          <a:ext cx="1563370" cy="761365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ClientDetails</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>相关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>163195</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="圆角矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14373225" y="11849100"/>
+          <a:ext cx="1563370" cy="761365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TokenRequest</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>请求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>lient</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>以外</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="上箭头 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12658725" y="12639675"/>
+          <a:ext cx="179705" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>160655</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="上箭头 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15068550" y="12592050"/>
+          <a:ext cx="179705" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>86360</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="圆角矩形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11972925" y="13173075"/>
+          <a:ext cx="1829435" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ClientDetailsService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>这个类接收一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ClientId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>然后产生</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ClientDetails</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="圆角矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14354175" y="13125450"/>
+          <a:ext cx="2591435" cy="1066165"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>TokenRequest</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>对象</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>根据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>请求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>参数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>相关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>参数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>直接</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ew</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>出来</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="圆角矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="15068550"/>
+          <a:ext cx="3924300" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>请求参数（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ClientId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="上箭头 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12677775" y="14211300"/>
+          <a:ext cx="160655" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="上箭头 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15249525" y="14220825"/>
+          <a:ext cx="160655" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="右箭头 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13935075" y="13554710"/>
+          <a:ext cx="323850" cy="189865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8299,7 +10581,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8315,8 +10597,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="U84" sqref="U84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/SpringSecurity/OAuth2.0认证.xlsx
+++ b/SpringSecurity/OAuth2.0认证.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18090" activeTab="1"/>
+    <workbookView windowWidth="22485" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpringSecurityOAuth开发APP认证框架1" sheetId="1" r:id="rId1"/>
@@ -17,89 +17,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -114,7 +40,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -130,7 +56,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,23 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +163,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,13 +184,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,25 +280,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,91 +328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,19 +352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,8 +381,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -402,10 +411,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -444,34 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -495,133 +495,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6409,7 +6409,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>的</a:t>
+            <a:t>的相关信息，所以如果要创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>OAuth2Authentication</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -6418,106 +6427,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>相关</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>所以</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>如果</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>要</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>创建</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>OAuth2Authentication</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>只需要</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>组装</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>个</a:t>
+            <a:t>只需要组装一个</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
@@ -7807,62 +7717,7 @@
               <a:cs typeface="+mn-ea"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>已经</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>组装</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>好</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
+            <a:t>中已经组装好的，</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
@@ -7878,7 +7733,15 @@
               <a:cs typeface="+mn-ea"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>这个</a:t>
+            <a:t>这个对象需要自己创建，而</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>OAuth2Request</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -7886,7 +7749,15 @@
               <a:cs typeface="+mn-ea"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>对象</a:t>
+            <a:t>这个对象中封装的是两部分信息，其一是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ClientDetails</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -7894,7 +7765,15 @@
               <a:cs typeface="+mn-ea"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>需要</a:t>
+            <a:t>客户端的相关信息，其二是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>TokenRequest</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -7902,7 +7781,15 @@
               <a:cs typeface="+mn-ea"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>自己</a:t>
+            <a:t>（请求信息中除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Client</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -7910,319 +7797,7 @@
               <a:cs typeface="+mn-ea"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>创建</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>而</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>OAuth2Request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对象</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>封装</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>两部分</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>其一</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>lientD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>etails</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>客户端</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>相关</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>其二</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>T</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>okenR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>equest</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>请求</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>除</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>lient</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>以外</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>）</a:t>
+            <a:t>信息以外的信息）</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN">
             <a:latin typeface="+mn-ea"/>
@@ -8704,31 +8279,7 @@
               <a:cs typeface="+mn-ea"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>客户端</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>相关</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
+            <a:t>客户端的相关信息</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -8915,7 +8466,15 @@
               <a:cs typeface="+mn-ea"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>请求</a:t>
+            <a:t>请求信息中除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="+mn-ea"/>
+              <a:cs typeface="+mn-ea"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Client</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -8923,71 +8482,7 @@
               <a:cs typeface="+mn-ea"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>除</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>lient</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>以外</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-              <a:cs typeface="+mn-ea"/>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
+            <a:t>信息以外的信息</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -9322,7 +8817,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>86360</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -9333,7 +8828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11972925" y="13173075"/>
-          <a:ext cx="1829435" cy="895350"/>
+          <a:ext cx="1829435" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9464,7 +8959,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ClientDetailsService</a:t>
+            <a:t>ClientDetailsService(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自动注入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -9709,7 +9220,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>这个</a:t>
+            <a:t>这个对象是根据请求参数中的相关参数直接</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>New</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
@@ -9718,142 +9238,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>对象</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>根据</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>请求</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>参数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>相关</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>参数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>直接</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>N</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ew</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>出来</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对象</a:t>
+            <a:t>出来的一个对象</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -10597,8 +9982,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="U84" sqref="U84"/>
+    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="S85" sqref="S85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/SpringSecurity/OAuth2.0认证.xlsx
+++ b/SpringSecurity/OAuth2.0认证.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22485" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="22488" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="SpringSecurityOAuth开发APP认证框架1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -31,25 +31,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,8 +68,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,7 +85,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -100,9 +107,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,53 +160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,19 +184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,43 +202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +220,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,31 +286,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,31 +316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,19 +340,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,20 +378,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -411,21 +408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -433,6 +415,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,17 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -495,133 +495,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,8 +712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1704975" y="1095375"/>
-          <a:ext cx="10134600" cy="5210175"/>
+          <a:off x="1567815" y="1163955"/>
+          <a:ext cx="9105900" cy="5553075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -765,8 +765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4905375" y="1219835"/>
-          <a:ext cx="3609975" cy="523875"/>
+          <a:off x="4425315" y="1299845"/>
+          <a:ext cx="3267075" cy="558165"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -846,8 +846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2419350" y="2228850"/>
-          <a:ext cx="3895725" cy="3571875"/>
+          <a:off x="2213610" y="2377440"/>
+          <a:ext cx="3484245" cy="3800475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -905,8 +905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="2238375"/>
-          <a:ext cx="3895725" cy="3571875"/>
+          <a:off x="6865620" y="2386965"/>
+          <a:ext cx="3552825" cy="3800475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,8 +1063,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2619375" y="2295525"/>
-          <a:ext cx="3609975" cy="523875"/>
+          <a:off x="2413635" y="2444115"/>
+          <a:ext cx="3198495" cy="558165"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1227,8 +1227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7858125" y="2295525"/>
-          <a:ext cx="3609975" cy="523875"/>
+          <a:off x="7103745" y="2444115"/>
+          <a:ext cx="3267075" cy="558165"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1391,8 +1391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628900" y="3124200"/>
-          <a:ext cx="1790700" cy="952500"/>
+          <a:off x="2423160" y="3329940"/>
+          <a:ext cx="1584960" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1456,8 +1456,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="4648200"/>
-          <a:ext cx="1790700" cy="952500"/>
+          <a:off x="3040380" y="4956810"/>
+          <a:ext cx="1584960" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1628,8 +1628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505835" y="4191000"/>
-          <a:ext cx="245745" cy="409575"/>
+          <a:off x="3162935" y="4465320"/>
+          <a:ext cx="245745" cy="432435"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1684,8 +1684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201025" y="3324225"/>
-          <a:ext cx="2905125" cy="952500"/>
+          <a:off x="7406640" y="3541395"/>
+          <a:ext cx="2602230" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1856,8 +1856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8505825" y="3695700"/>
-          <a:ext cx="2314575" cy="523875"/>
+          <a:off x="7682865" y="3935730"/>
+          <a:ext cx="2108835" cy="558165"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2020,8 +2020,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7915275" y="4410710"/>
-          <a:ext cx="3381375" cy="1285240"/>
+          <a:off x="7160895" y="4696460"/>
+          <a:ext cx="3038475" cy="1376680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2235,8 +2235,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="3143250"/>
-          <a:ext cx="1790700" cy="952500"/>
+          <a:off x="4074795" y="3348990"/>
+          <a:ext cx="1584960" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2402,8 +2402,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686300" y="4210050"/>
-          <a:ext cx="245745" cy="409575"/>
+          <a:off x="4274820" y="4484370"/>
+          <a:ext cx="177165" cy="432435"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -2544,16 +2544,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>392430</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,8 +2562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4981575" y="704850"/>
-          <a:ext cx="5057775" cy="1000125"/>
+          <a:off x="6307455" y="735330"/>
+          <a:ext cx="4577715" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2667,8 +2667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571500" y="3009900"/>
-          <a:ext cx="3333750" cy="457835"/>
+          <a:off x="571500" y="3204210"/>
+          <a:ext cx="2990850" cy="492125"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2732,8 +2732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="2724150"/>
-          <a:ext cx="3839210" cy="1028700"/>
+          <a:off x="3600450" y="2895600"/>
+          <a:ext cx="3427730" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2835,8 +2835,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7867650" y="3076575"/>
-          <a:ext cx="962025" cy="304800"/>
+          <a:off x="7113270" y="3270885"/>
+          <a:ext cx="893445" cy="327660"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2888,8 +2888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8886825" y="2552700"/>
-          <a:ext cx="3839210" cy="1692910"/>
+          <a:off x="8023860" y="2712720"/>
+          <a:ext cx="3467735" cy="1807210"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3124,8 +3124,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9544050" y="4248150"/>
-          <a:ext cx="276225" cy="828675"/>
+          <a:off x="8641080" y="4522470"/>
+          <a:ext cx="219075" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3177,8 +3177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11896725" y="4276725"/>
-          <a:ext cx="276225" cy="828675"/>
+          <a:off x="10730865" y="4551045"/>
+          <a:ext cx="276225" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3329,8 +3329,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8496300" y="5133975"/>
-          <a:ext cx="2334260" cy="1266190"/>
+          <a:off x="7673340" y="5465445"/>
+          <a:ext cx="2128520" cy="1357630"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3516,8 +3516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10915650" y="5114925"/>
-          <a:ext cx="2334260" cy="1294765"/>
+          <a:off x="9875520" y="5446395"/>
+          <a:ext cx="2071370" cy="1386205"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3751,8 +3751,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12011025" y="6448425"/>
-          <a:ext cx="276225" cy="828675"/>
+          <a:off x="10845165" y="6871335"/>
+          <a:ext cx="264795" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3903,8 +3903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848725" y="7305675"/>
-          <a:ext cx="3839210" cy="1692910"/>
+          <a:off x="8023860" y="7785735"/>
+          <a:ext cx="3429635" cy="1807210"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4157,8 +4157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9058275" y="10039350"/>
-          <a:ext cx="6449060" cy="1266190"/>
+          <a:off x="8166735" y="10702290"/>
+          <a:ext cx="5831840" cy="1346200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4376,8 +4376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9086850" y="11325225"/>
-          <a:ext cx="2334260" cy="1266190"/>
+          <a:off x="8195310" y="12079605"/>
+          <a:ext cx="2128520" cy="1346200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4581,8 +4581,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7753350" y="11182350"/>
-          <a:ext cx="1343025" cy="267970"/>
+          <a:off x="6998970" y="11925300"/>
+          <a:ext cx="1205865" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -4733,8 +4733,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5343525" y="10353675"/>
-          <a:ext cx="2334260" cy="1913255"/>
+          <a:off x="4863465" y="11039475"/>
+          <a:ext cx="2059940" cy="2038985"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4920,8 +4920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6238875" y="12249150"/>
-          <a:ext cx="229235" cy="609600"/>
+          <a:off x="5621655" y="13060680"/>
+          <a:ext cx="229235" cy="644525"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -4973,8 +4973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3705225" y="12896850"/>
-          <a:ext cx="3838575" cy="2101850"/>
+          <a:off x="3362325" y="13754100"/>
+          <a:ext cx="3427095" cy="2239010"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5173,8 +5173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3838575" y="14087475"/>
-          <a:ext cx="1563370" cy="761365"/>
+          <a:off x="3495675" y="15024735"/>
+          <a:ext cx="1426210" cy="807085"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5360,8 +5360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="14116050"/>
-          <a:ext cx="1563370" cy="751205"/>
+          <a:off x="5223510" y="15053310"/>
+          <a:ext cx="1426210" cy="796925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5540,8 +5540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010025" y="15754350"/>
-          <a:ext cx="3268345" cy="647065"/>
+          <a:off x="3667125" y="16794480"/>
+          <a:ext cx="2925445" cy="692785"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5720,8 +5720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10163175" y="9153525"/>
-          <a:ext cx="276225" cy="828675"/>
+          <a:off x="9203055" y="9759315"/>
+          <a:ext cx="207645" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -5872,8 +5872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3476625" y="1781175"/>
-          <a:ext cx="11268710" cy="7629525"/>
+          <a:off x="3133725" y="1895475"/>
+          <a:ext cx="10171430" cy="8132445"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5935,8 +5935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952875" y="6486525"/>
-          <a:ext cx="4057650" cy="1905000"/>
+          <a:off x="3609975" y="6909435"/>
+          <a:ext cx="3646170" cy="2030730"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6030,8 +6030,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3495675" y="9877425"/>
-          <a:ext cx="15811500" cy="8601075"/>
+          <a:off x="3152775" y="10528935"/>
+          <a:ext cx="14234160" cy="9172575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6093,8 +6093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534025" y="15106650"/>
-          <a:ext cx="229235" cy="610235"/>
+          <a:off x="4985385" y="16112490"/>
+          <a:ext cx="229235" cy="644525"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -6245,8 +6245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8505825" y="13115925"/>
-          <a:ext cx="3429635" cy="1266190"/>
+          <a:off x="7682865" y="13984605"/>
+          <a:ext cx="3086735" cy="1346200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6486,8 +6486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8515350" y="14935200"/>
-          <a:ext cx="3429000" cy="1266190"/>
+          <a:off x="7692390" y="15929610"/>
+          <a:ext cx="3086100" cy="1346200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6665,8 +6665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8515350" y="16773525"/>
-          <a:ext cx="3429000" cy="1266190"/>
+          <a:off x="7692390" y="17882235"/>
+          <a:ext cx="3086100" cy="1357630"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6844,8 +6844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13249275" y="17021175"/>
-          <a:ext cx="1563370" cy="751205"/>
+          <a:off x="11946255" y="18152745"/>
+          <a:ext cx="1426210" cy="796925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7008,8 +7008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11934825" y="17240250"/>
-          <a:ext cx="1343025" cy="267970"/>
+          <a:off x="10768965" y="18383250"/>
+          <a:ext cx="1205865" cy="290830"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -7160,8 +7160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10192385" y="14401800"/>
-          <a:ext cx="179705" cy="514350"/>
+          <a:off x="9232265" y="15361920"/>
+          <a:ext cx="111125" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -7213,8 +7213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10182225" y="12582525"/>
-          <a:ext cx="179705" cy="514350"/>
+          <a:off x="9222105" y="13416915"/>
+          <a:ext cx="111125" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -7365,8 +7365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10201275" y="16211550"/>
-          <a:ext cx="179705" cy="514350"/>
+          <a:off x="9241155" y="17285970"/>
+          <a:ext cx="111125" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -7517,8 +7517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14916150" y="16087725"/>
-          <a:ext cx="4057650" cy="1886585"/>
+          <a:off x="13475970" y="17150715"/>
+          <a:ext cx="3646170" cy="2012315"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7829,8 +7829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12601575" y="11315700"/>
-          <a:ext cx="179705" cy="514350"/>
+          <a:off x="11367135" y="12070080"/>
+          <a:ext cx="179705" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -7981,8 +7981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15039975" y="11325225"/>
-          <a:ext cx="179705" cy="514350"/>
+          <a:off x="13578840" y="12079605"/>
+          <a:ext cx="132080" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -8133,8 +8133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11915775" y="11849100"/>
-          <a:ext cx="1563370" cy="761365"/>
+          <a:off x="10749915" y="12637770"/>
+          <a:ext cx="1426210" cy="807085"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8320,8 +8320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14373225" y="11849100"/>
-          <a:ext cx="1563370" cy="761365"/>
+          <a:off x="12961620" y="12637770"/>
+          <a:ext cx="1397635" cy="807085"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8523,8 +8523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12658725" y="12639675"/>
-          <a:ext cx="179705" cy="514350"/>
+          <a:off x="11424285" y="13474065"/>
+          <a:ext cx="179705" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -8675,8 +8675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15068550" y="12592050"/>
-          <a:ext cx="179705" cy="514350"/>
+          <a:off x="13578840" y="13426440"/>
+          <a:ext cx="160655" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -8827,8 +8827,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11972925" y="13173075"/>
-          <a:ext cx="1829435" cy="1066800"/>
+          <a:off x="10807065" y="14041755"/>
+          <a:ext cx="1623695" cy="1146810"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9080,8 +9080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14354175" y="13125450"/>
-          <a:ext cx="2591435" cy="1066165"/>
+          <a:off x="12961620" y="13994130"/>
+          <a:ext cx="2338070" cy="1134745"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9279,8 +9279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12220575" y="15068550"/>
-          <a:ext cx="3924300" cy="676275"/>
+          <a:off x="11054715" y="16062960"/>
+          <a:ext cx="3512820" cy="721995"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9365,8 +9365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12677775" y="14211300"/>
-          <a:ext cx="160655" cy="857250"/>
+          <a:off x="11443335" y="15148560"/>
+          <a:ext cx="160655" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -9517,8 +9517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15249525" y="14220825"/>
-          <a:ext cx="160655" cy="857250"/>
+          <a:off x="13740765" y="15158085"/>
+          <a:ext cx="160655" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -9669,8 +9669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13935075" y="13554710"/>
-          <a:ext cx="323850" cy="189865"/>
+          <a:off x="12563475" y="14457680"/>
+          <a:ext cx="323850" cy="201295"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -9965,11 +9965,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9982,11 +9982,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
-      <selection activeCell="S85" sqref="S85"/>
+    <sheetView topLeftCell="E85" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
